--- a/sellerflash-otomasyon-linkler/Furniture.xlsx
+++ b/sellerflash-otomasyon-linkler/Furniture.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nihat/Documents/sellerflash-otomasyon-linkler/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nihat/Documents/AmazonIcinGelistirdiklerim/amazon-seller-flash-otomasyonu-url/sellerflash-otomasyon-linkler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910460CA-8361-9C43-85E7-265F4A135237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8A58AF-28CC-8B49-B8A3-0251FA5F1462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="740" windowWidth="25900" windowHeight="16960" xr2:uid="{B348BE77-CFF7-AA44-A2E0-DAB17C7A07D2}"/>
+    <workbookView xWindow="3500" yWindow="740" windowWidth="25900" windowHeight="16860" xr2:uid="{B348BE77-CFF7-AA44-A2E0-DAB17C7A07D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -626,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0D3006-A3C7-6D44-8AC0-6A9CD4CBBCAA}">
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="str" cm="1">
-        <f t="array" ref="B1:B106">"'"&amp;A1:A106&amp;"',"</f>
+        <f t="array" ref="B1:B72">"'"&amp;A1:A72&amp;"',"</f>
         <v>'https://www.amazon.com/s?i=garden&amp;bbn=1063308&amp;rh=n%3A1055398%2Cn%3A1063306%2Cn%3A1063308%2Cn%3A23811661011%2Cp_72%3A1248915011%2Cp_36%3A1500-7700&amp;dc&amp;ds=v1%3A0OZDUrqY5QSqthTwfwSlivLmIAbERUwB09qwYad9SVg&amp;qid=1688428729&amp;rnid=1063308&amp;ref=sr_nr_n_10',</v>
       </c>
     </row>
@@ -1209,176 +1209,6 @@
       </c>
       <c r="B72" t="str">
         <v>'https://www.amazon.com/s?i=garden&amp;bbn=16543322011&amp;rh=n%3A1055398%2Cn%3A1063306%2Cn%3A16543322011%2Cn%3A3733651%2Cp_72%3A1248915011%2Cp_36%3A1500-7700&amp;dc&amp;ds=v1%3A%2FwmxOJmjq53Iie6u5uHn%2Fa86MR3JBqd%2BK%2FtP4i9nW7U&amp;qid=1688428736&amp;rnid=16543322011&amp;ref=sr_nr_n_7',</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B73" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B74" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B75" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B76" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B77" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B78" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B79" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B80" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B81" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B82" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B83" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B84" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B85" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B86" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B87" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B88" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B89" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B90" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B91" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B92" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B93" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B94" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B95" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B96" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B97" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B98" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B99" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B100" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B101" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B102" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B103" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B104" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B105" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B106" t="str">
-        <v>'',</v>
       </c>
     </row>
   </sheetData>
